--- a/data/trans_orig/DIF_MES-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/DIF_MES-Estudios-trans_orig.xlsx
@@ -546,7 +546,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Dificultad de llegar a fin de mes en País Vasco</t>
+          <t>Dificultad de llegar a fin de mes en País Vasco (tasa de respuesta: 93,44%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3965,7 +3965,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Dificultad de llegar a fin de mes en Andalucia</t>
+          <t>Dificultad de llegar a fin de mes en Andalucia (tasa de respuesta: 99,06%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -7384,7 +7384,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Dificultad de llegar a fin de mes en C.Valenciana</t>
+          <t>Dificultad de llegar a fin de mes en C.Valenciana (tasa de respuesta: 82,06%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -10803,7 +10803,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Dificultad de llegar a fin de mes en Barcelona</t>
+          <t>Dificultad de llegar a fin de mes en Barcelona (tasa de respuesta: 98,21%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/DIF_MES-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/DIF_MES-Estudios-trans_orig.xlsx
@@ -736,32 +736,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1900</t>
+          <t>1644</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>853</t>
+          <t>684</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3792</t>
+          <t>3116</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -771,32 +771,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>1998</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1133</t>
+          <t>903</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>3994</t>
+          <t>3586</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -806,32 +806,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>3925</t>
+          <t>3642</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>2295</t>
+          <t>2093</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>6388</t>
+          <t>5547</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>1,91%</t>
+          <t>1,92%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>2,92%</t>
         </is>
       </c>
     </row>
@@ -849,67 +849,67 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>26241</t>
+          <t>22676</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>22134</t>
+          <t>19543</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>29852</t>
+          <t>26381</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>31,08%</t>
+          <t>29,27%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
+          <t>25,23%</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>34,05%</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>29483</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>25602</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>33450</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>26,22%</t>
         </is>
       </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>35,36%</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>198</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>33953</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>29744</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>38007</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>28,0%</t>
-        </is>
-      </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>24,53%</t>
+          <t>22,77%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>31,35%</t>
+          <t>29,75%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -919,32 +919,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>60194</t>
+          <t>52159</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>54208</t>
+          <t>47188</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>66033</t>
+          <t>57609</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>29,27%</t>
+          <t>27,47%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>26,36%</t>
+          <t>24,85%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>32,1%</t>
+          <t>30,34%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>24124</t>
+          <t>21978</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>20606</t>
+          <t>18767</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>27865</t>
+          <t>25292</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>28,57%</t>
+          <t>28,37%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>24,41%</t>
+          <t>24,22%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>33,0%</t>
+          <t>32,65%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -997,32 +997,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>35335</t>
+          <t>34857</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>31144</t>
+          <t>30594</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>39728</t>
+          <t>39343</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>29,14%</t>
+          <t>31,0%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>25,68%</t>
+          <t>27,21%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>32,76%</t>
+          <t>34,99%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1032,32 +1032,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>59459</t>
+          <t>56835</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>53391</t>
+          <t>51422</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>65281</t>
+          <t>62365</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>28,91%</t>
+          <t>29,93%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>25,96%</t>
+          <t>27,08%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>31,74%</t>
+          <t>32,84%</t>
         </is>
       </c>
     </row>
@@ -1075,32 +1075,32 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>15565</t>
+          <t>17129</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12663</t>
+          <t>13939</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>18862</t>
+          <t>20371</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,44%</t>
+          <t>22,11%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>15,0%</t>
+          <t>17,99%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>22,34%</t>
+          <t>26,3%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1110,32 +1110,32 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29345</t>
+          <t>28629</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>25038</t>
+          <t>24678</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>33607</t>
+          <t>32883</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>24,2%</t>
+          <t>25,46%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>20,65%</t>
+          <t>21,95%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>27,72%</t>
+          <t>29,25%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -1145,32 +1145,32 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>44910</t>
+          <t>45758</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>39882</t>
+          <t>40677</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>50493</t>
+          <t>50583</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>21,83%</t>
+          <t>24,1%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>19,39%</t>
+          <t>21,42%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>24,55%</t>
+          <t>26,64%</t>
         </is>
       </c>
     </row>
@@ -1188,32 +1188,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>10877</t>
+          <t>9480</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8346</t>
+          <t>7230</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>14115</t>
+          <t>12334</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>12,88%</t>
+          <t>12,24%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,89%</t>
+          <t>9,33%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>16,72%</t>
+          <t>15,92%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1223,32 +1223,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>14858</t>
+          <t>12863</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>12013</t>
+          <t>10190</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>18259</t>
+          <t>16036</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>12,25%</t>
+          <t>11,44%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>9,91%</t>
+          <t>9,06%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>15,06%</t>
+          <t>14,26%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1258,32 +1258,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>25735</t>
+          <t>22343</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>21778</t>
+          <t>18792</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>30446</t>
+          <t>26328</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>12,51%</t>
+          <t>11,77%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>10,59%</t>
+          <t>9,9%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>14,8%</t>
+          <t>13,86%</t>
         </is>
       </c>
     </row>
@@ -1301,32 +1301,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5722</t>
+          <t>4564</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3819</t>
+          <t>3026</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8127</t>
+          <t>6530</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,52%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,63%</t>
+          <t>8,43%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1336,32 +1336,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5736</t>
+          <t>4599</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3889</t>
+          <t>3148</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8040</t>
+          <t>6517</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>4,09%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1371,32 +1371,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>11458</t>
+          <t>9163</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>8622</t>
+          <t>7015</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>14893</t>
+          <t>11958</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>7,24%</t>
+          <t>6,3%</t>
         </is>
       </c>
     </row>
@@ -1414,17 +1414,17 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>84429</t>
+          <t>77472</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>84429</t>
+          <t>77472</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>84429</t>
+          <t>77472</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1449,17 +1449,17 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>121252</t>
+          <t>112428</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>121252</t>
+          <t>112428</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>121252</t>
+          <t>112428</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -1484,17 +1484,17 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>205681</t>
+          <t>189899</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>205681</t>
+          <t>189899</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>205681</t>
+          <t>189899</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -1531,32 +1531,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14478</t>
+          <t>14718</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11397</t>
+          <t>11560</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17892</t>
+          <t>18300</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1566,32 +1566,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>13720</t>
+          <t>13577</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10667</t>
+          <t>10539</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17175</t>
+          <t>17319</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1601,32 +1601,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>28199</t>
+          <t>28295</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>24067</t>
+          <t>23758</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>33239</t>
+          <t>32852</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>3,99%</t>
+          <t>3,83%</t>
         </is>
       </c>
     </row>
@@ -1644,32 +1644,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>153294</t>
+          <t>153123</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>144597</t>
+          <t>144183</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>162349</t>
+          <t>161906</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>35,84%</t>
+          <t>34,93%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>33,8%</t>
+          <t>32,89%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>37,95%</t>
+          <t>36,94%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1679,32 +1679,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>130703</t>
+          <t>130899</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>122655</t>
+          <t>123030</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>139407</t>
+          <t>139664</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>32,25%</t>
+          <t>31,2%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>30,26%</t>
+          <t>29,32%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>34,4%</t>
+          <t>33,28%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1714,32 +1714,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>283998</t>
+          <t>284022</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>271437</t>
+          <t>271265</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>296258</t>
+          <t>296041</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>34,09%</t>
+          <t>33,11%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>32,58%</t>
+          <t>31,62%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>35,56%</t>
+          <t>34,51%</t>
         </is>
       </c>
     </row>
@@ -1757,32 +1757,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>130388</t>
+          <t>141312</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>122188</t>
+          <t>133384</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>139293</t>
+          <t>151442</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>30,48%</t>
+          <t>32,24%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>28,56%</t>
+          <t>30,43%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>32,56%</t>
+          <t>34,55%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1792,32 +1792,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>121347</t>
+          <t>131120</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>114294</t>
+          <t>123155</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>130211</t>
+          <t>139499</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>29,94%</t>
+          <t>31,25%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>28,2%</t>
+          <t>29,35%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>32,13%</t>
+          <t>33,25%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1827,32 +1827,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>251735</t>
+          <t>272432</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>240166</t>
+          <t>260598</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>262893</t>
+          <t>284424</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>30,22%</t>
+          <t>31,75%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>28,83%</t>
+          <t>30,38%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>31,56%</t>
+          <t>33,15%</t>
         </is>
       </c>
     </row>
@@ -1870,32 +1870,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>82338</t>
+          <t>80598</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>75168</t>
+          <t>73871</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>90426</t>
+          <t>87640</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>19,25%</t>
+          <t>18,39%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>17,57%</t>
+          <t>16,85%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>21,14%</t>
+          <t>19,99%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1905,32 +1905,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>80433</t>
+          <t>81067</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>73504</t>
+          <t>73313</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>88938</t>
+          <t>88057</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>19,85%</t>
+          <t>19,32%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>18,14%</t>
+          <t>17,47%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>21,94%</t>
+          <t>20,99%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1940,32 +1940,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>162771</t>
+          <t>161665</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>152800</t>
+          <t>151702</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>173472</t>
+          <t>172304</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>19,54%</t>
+          <t>18,84%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>18,34%</t>
+          <t>17,68%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>20,82%</t>
+          <t>20,08%</t>
         </is>
       </c>
     </row>
@@ -1983,32 +1983,32 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>32932</t>
+          <t>34197</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>28110</t>
+          <t>29259</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>38385</t>
+          <t>39671</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,7%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>6,68%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>8,97%</t>
+          <t>9,05%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -2018,32 +2018,32 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>41536</t>
+          <t>44294</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>36418</t>
+          <t>38547</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>47448</t>
+          <t>50410</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>10,25%</t>
+          <t>10,56%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>8,99%</t>
+          <t>9,19%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>11,71%</t>
+          <t>12,01%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -2053,32 +2053,32 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>74468</t>
+          <t>78491</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>67095</t>
+          <t>70659</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>82078</t>
+          <t>86042</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>8,94%</t>
+          <t>9,15%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>8,05%</t>
+          <t>8,24%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>10,03%</t>
         </is>
       </c>
     </row>
@@ -2096,32 +2096,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>14340</t>
+          <t>14375</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>10980</t>
+          <t>11194</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>18069</t>
+          <t>18105</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,22%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2131,32 +2131,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>17543</t>
+          <t>18651</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>14310</t>
+          <t>14761</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>21310</t>
+          <t>23273</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>4,33%</t>
+          <t>4,44%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2166,32 +2166,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>31883</t>
+          <t>33026</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>27294</t>
+          <t>28245</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>37498</t>
+          <t>38754</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>4,52%</t>
         </is>
       </c>
     </row>
@@ -2209,17 +2209,17 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>427770</t>
+          <t>438324</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>427770</t>
+          <t>438324</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>427770</t>
+          <t>438324</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2244,17 +2244,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>405283</t>
+          <t>419607</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>405283</t>
+          <t>419607</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>405283</t>
+          <t>419607</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -2279,17 +2279,17 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>833053</t>
+          <t>857931</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>833053</t>
+          <t>857931</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>833053</t>
+          <t>857931</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -2326,32 +2326,32 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>16635</t>
+          <t>19129</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>13511</t>
+          <t>15646</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>20398</t>
+          <t>23306</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>11,35%</t>
+          <t>10,85%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>9,22%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>13,92%</t>
+          <t>13,22%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2361,32 +2361,32 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>17066</t>
+          <t>21251</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>13879</t>
+          <t>17600</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>20488</t>
+          <t>25859</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>9,36%</t>
+          <t>9,44%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>7,82%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>11,24%</t>
+          <t>11,49%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2396,32 +2396,32 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>33701</t>
+          <t>40381</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>28983</t>
+          <t>35531</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>39224</t>
+          <t>46477</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>10,25%</t>
+          <t>10,06%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>8,81%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>11,93%</t>
+          <t>11,58%</t>
         </is>
       </c>
     </row>
@@ -2439,32 +2439,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>74994</t>
+          <t>88063</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>69303</t>
+          <t>81824</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>79843</t>
+          <t>94401</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>51,16%</t>
+          <t>49,96%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>47,28%</t>
+          <t>46,42%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>54,47%</t>
+          <t>53,56%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2474,32 +2474,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>85690</t>
+          <t>103934</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>80011</t>
+          <t>96452</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>92044</t>
+          <t>111132</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>47,02%</t>
+          <t>46,17%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>43,91%</t>
+          <t>42,84%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>50,51%</t>
+          <t>49,36%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2509,32 +2509,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>160684</t>
+          <t>191998</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>152320</t>
+          <t>182558</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>168852</t>
+          <t>201184</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>48,87%</t>
+          <t>47,83%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>46,32%</t>
+          <t>45,48%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>51,35%</t>
+          <t>50,12%</t>
         </is>
       </c>
     </row>
@@ -2552,32 +2552,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>35978</t>
+          <t>45462</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>31691</t>
+          <t>39533</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>40636</t>
+          <t>51029</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>24,55%</t>
+          <t>25,79%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>21,62%</t>
+          <t>22,43%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>27,72%</t>
+          <t>28,95%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2587,17 +2587,17 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>49252</t>
+          <t>60858</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>44225</t>
+          <t>54798</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>54250</t>
+          <t>67651</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -2607,12 +2607,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>24,27%</t>
+          <t>24,34%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>29,77%</t>
+          <t>30,05%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2622,32 +2622,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>85230</t>
+          <t>106320</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>78828</t>
+          <t>98444</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>92461</t>
+          <t>114536</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>25,92%</t>
+          <t>26,49%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>23,97%</t>
+          <t>24,53%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>28,12%</t>
+          <t>28,54%</t>
         </is>
       </c>
     </row>
@@ -2665,32 +2665,32 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>11898</t>
+          <t>14901</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>9234</t>
+          <t>11326</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>14767</t>
+          <t>18565</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>8,12%</t>
+          <t>8,45%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>10,07%</t>
+          <t>10,53%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2700,32 +2700,32 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>18731</t>
+          <t>24989</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>15802</t>
+          <t>21168</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>22938</t>
+          <t>30137</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>10,28%</t>
+          <t>11,1%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>8,67%</t>
+          <t>9,4%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>12,59%</t>
+          <t>13,39%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2735,32 +2735,32 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>30629</t>
+          <t>39890</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>26172</t>
+          <t>34576</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>35446</t>
+          <t>46659</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>9,31%</t>
+          <t>9,94%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>7,96%</t>
+          <t>8,61%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>10,78%</t>
+          <t>11,62%</t>
         </is>
       </c>
     </row>
@@ -2778,32 +2778,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>5266</t>
+          <t>6399</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>3441</t>
+          <t>4162</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>7702</t>
+          <t>8946</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2813,22 +2813,22 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>9495</t>
+          <t>11608</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>7037</t>
+          <t>8681</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>12388</t>
+          <t>15336</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
@@ -2838,7 +2838,7 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>6,8%</t>
+          <t>6,81%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2848,17 +2848,17 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>14760</t>
+          <t>18007</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>11442</t>
+          <t>14153</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>18582</t>
+          <t>22276</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -2868,12 +2868,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>3,53%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>5,55%</t>
         </is>
       </c>
     </row>
@@ -2891,67 +2891,67 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>1808</t>
+          <t>2297</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>840</t>
+          <t>1149</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>3640</t>
+          <t>4527</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
+          <t>0,65%</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>2,57%</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>2485</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1282</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>4409</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1,1%</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
           <t>0,57%</t>
         </is>
       </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>2,48%</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>2002</t>
-        </is>
-      </c>
-      <c r="L23" s="2" t="inlineStr">
-        <is>
-          <t>1087</t>
-        </is>
-      </c>
-      <c r="M23" s="2" t="inlineStr">
-        <is>
-          <t>3827</t>
-        </is>
-      </c>
-      <c r="N23" s="2" t="inlineStr">
-        <is>
-          <t>1,1%</t>
-        </is>
-      </c>
-      <c r="O23" s="2" t="inlineStr">
-        <is>
-          <t>0,6%</t>
-        </is>
-      </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -2961,32 +2961,32 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>3809</t>
+          <t>4782</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>2276</t>
+          <t>3072</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>6080</t>
+          <t>7399</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>1,84%</t>
         </is>
       </c>
     </row>
@@ -3004,17 +3004,17 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>146578</t>
+          <t>176252</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>146578</t>
+          <t>176252</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>146578</t>
+          <t>176252</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3039,17 +3039,17 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>182235</t>
+          <t>225127</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>182235</t>
+          <t>225127</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>182235</t>
+          <t>225127</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3074,17 +3074,17 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>328813</t>
+          <t>401379</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>328813</t>
+          <t>401379</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>328813</t>
+          <t>401379</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3121,32 +3121,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>33013</t>
+          <t>35491</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>28574</t>
+          <t>30684</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>38265</t>
+          <t>41333</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3156,32 +3156,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>32812</t>
+          <t>36826</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>28453</t>
+          <t>31927</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>38309</t>
+          <t>42790</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>5,65%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3191,32 +3191,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>65825</t>
+          <t>72317</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>59130</t>
+          <t>65020</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>73643</t>
+          <t>81150</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>5,6%</t>
         </is>
       </c>
     </row>
@@ -3234,32 +3234,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>254529</t>
+          <t>263863</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>242779</t>
+          <t>252448</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>266052</t>
+          <t>276268</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>38,64%</t>
+          <t>38,13%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>36,85%</t>
+          <t>36,48%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>40,39%</t>
+          <t>39,92%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3269,32 +3269,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>250346</t>
+          <t>264316</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>238598</t>
+          <t>252245</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>261628</t>
+          <t>276312</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>35,32%</t>
+          <t>34,91%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>33,66%</t>
+          <t>33,31%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>36,91%</t>
+          <t>36,49%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3304,32 +3304,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>504875</t>
+          <t>528179</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>488788</t>
+          <t>510944</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>520688</t>
+          <t>545052</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>36,92%</t>
+          <t>36,45%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>35,74%</t>
+          <t>35,26%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>38,07%</t>
+          <t>37,61%</t>
         </is>
       </c>
     </row>
@@ -3347,32 +3347,32 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>190490</t>
+          <t>208752</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>179276</t>
+          <t>196574</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>200575</t>
+          <t>218998</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>28,92%</t>
+          <t>30,16%</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>27,21%</t>
+          <t>28,4%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>30,45%</t>
+          <t>31,64%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -3382,32 +3382,32 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>205934</t>
+          <t>226835</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>196365</t>
+          <t>215772</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>216383</t>
+          <t>237892</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>29,06%</t>
+          <t>29,96%</t>
         </is>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>27,71%</t>
+          <t>28,5%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>30,53%</t>
+          <t>31,42%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
@@ -3417,32 +3417,32 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>396424</t>
+          <t>435587</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>381744</t>
+          <t>417841</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>411460</t>
+          <t>451101</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
         <is>
-          <t>28,99%</t>
+          <t>30,06%</t>
         </is>
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>27,91%</t>
+          <t>28,83%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>30,09%</t>
+          <t>31,13%</t>
         </is>
       </c>
     </row>
@@ -3460,32 +3460,32 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>109801</t>
+          <t>112628</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>101408</t>
+          <t>105203</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>119058</t>
+          <t>122507</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>16,67%</t>
+          <t>16,27%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>15,39%</t>
+          <t>15,2%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>18,07%</t>
+          <t>17,7%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -3495,32 +3495,32 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>128509</t>
+          <t>134686</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>119948</t>
+          <t>125693</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>138131</t>
+          <t>144226</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>18,13%</t>
+          <t>17,79%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>16,92%</t>
+          <t>16,6%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>19,49%</t>
+          <t>19,05%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -3530,32 +3530,32 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>238309</t>
+          <t>247313</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>225808</t>
+          <t>235033</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>250672</t>
+          <t>260853</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>17,43%</t>
+          <t>17,07%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>16,51%</t>
+          <t>16,22%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>18,33%</t>
+          <t>18,0%</t>
         </is>
       </c>
     </row>
@@ -3573,32 +3573,32 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>49075</t>
+          <t>50077</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>43238</t>
+          <t>43680</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>55576</t>
+          <t>56735</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>7,45%</t>
+          <t>7,24%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>6,56%</t>
+          <t>6,31%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>8,44%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3608,32 +3608,32 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>65889</t>
+          <t>68765</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>59148</t>
+          <t>61720</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>72844</t>
+          <t>76486</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>9,3%</t>
+          <t>9,08%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>8,35%</t>
+          <t>8,15%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>10,28%</t>
+          <t>10,1%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3643,32 +3643,32 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>114964</t>
+          <t>118842</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>106479</t>
+          <t>110621</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>125735</t>
+          <t>129203</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>8,41%</t>
+          <t>8,2%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>7,79%</t>
+          <t>7,63%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>9,19%</t>
+          <t>8,92%</t>
         </is>
       </c>
     </row>
@@ -3686,32 +3686,32 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>21869</t>
+          <t>21237</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>17704</t>
+          <t>17746</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>26142</t>
+          <t>25598</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>3,32%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3721,32 +3721,32 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>25281</t>
+          <t>25735</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>21028</t>
+          <t>21781</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>30338</t>
+          <t>30866</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>4,28%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3756,32 +3756,32 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>47150</t>
+          <t>46972</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>41294</t>
+          <t>41107</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>53737</t>
+          <t>53038</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>3,45%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>3,02%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>3,93%</t>
+          <t>3,66%</t>
         </is>
       </c>
     </row>
@@ -3799,17 +3799,17 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>658777</t>
+          <t>692048</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>658777</t>
+          <t>692048</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>658777</t>
+          <t>692048</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -3834,17 +3834,17 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>708770</t>
+          <t>757162</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>708770</t>
+          <t>757162</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>708770</t>
+          <t>757162</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -3869,17 +3869,17 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>1367547</t>
+          <t>1449210</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>1367547</t>
+          <t>1449210</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>1367547</t>
+          <t>1449210</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -4165,7 +4165,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4983</t>
+          <t>5177</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -4180,7 +4180,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -4195,12 +4195,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>4665</t>
+          <t>4602</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>13668</t>
+          <t>12929</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -4210,12 +4210,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>3,3%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -4230,12 +4230,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>5139</t>
+          <t>5272</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>14061</t>
+          <t>15237</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -4245,12 +4245,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>2,47%</t>
         </is>
       </c>
     </row>
@@ -4273,12 +4273,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>33678</t>
+          <t>34082</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>56643</t>
+          <t>55458</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -4288,12 +4288,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>14,91%</t>
+          <t>15,09%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>25,08%</t>
+          <t>24,55%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -4308,12 +4308,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>39278</t>
+          <t>40022</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>61148</t>
+          <t>64243</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -4323,12 +4323,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>10,02%</t>
+          <t>10,21%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>15,6%</t>
+          <t>16,39%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -4343,12 +4343,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>79558</t>
+          <t>78383</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>110463</t>
+          <t>110273</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -4358,12 +4358,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>12,88%</t>
+          <t>12,69%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>17,88%</t>
+          <t>17,85%</t>
         </is>
       </c>
     </row>
@@ -4386,12 +4386,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>31368</t>
+          <t>30284</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>55254</t>
+          <t>54565</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -4401,12 +4401,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>13,89%</t>
+          <t>13,41%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>24,46%</t>
+          <t>24,16%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -4421,12 +4421,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>61347</t>
+          <t>60869</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>85044</t>
+          <t>85398</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -4436,12 +4436,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>15,65%</t>
+          <t>15,53%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>21,7%</t>
+          <t>21,79%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -4456,12 +4456,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>96456</t>
+          <t>98625</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>130438</t>
+          <t>130735</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -4471,12 +4471,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>15,61%</t>
+          <t>15,96%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>21,11%</t>
+          <t>21,16%</t>
         </is>
       </c>
     </row>
@@ -4499,12 +4499,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>61041</t>
+          <t>59716</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>86502</t>
+          <t>87414</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -4514,12 +4514,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>27,03%</t>
+          <t>26,44%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>38,3%</t>
+          <t>38,7%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -4534,12 +4534,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>145990</t>
+          <t>144643</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>178332</t>
+          <t>176102</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -4549,12 +4549,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>37,25%</t>
+          <t>36,9%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>45,5%</t>
+          <t>44,93%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -4569,12 +4569,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>214397</t>
+          <t>216049</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>255297</t>
+          <t>257182</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -4584,12 +4584,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>34,7%</t>
+          <t>34,97%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>41,32%</t>
+          <t>41,63%</t>
         </is>
       </c>
     </row>
@@ -4612,12 +4612,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>37556</t>
+          <t>36481</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>60238</t>
+          <t>60463</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -4627,12 +4627,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>16,63%</t>
+          <t>16,15%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>26,67%</t>
+          <t>26,77%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -4647,12 +4647,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>58615</t>
+          <t>60020</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>86202</t>
+          <t>91326</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -4662,12 +4662,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>14,95%</t>
+          <t>15,31%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>21,99%</t>
+          <t>23,3%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -4682,12 +4682,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>101525</t>
+          <t>101450</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>139322</t>
+          <t>139589</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -4697,12 +4697,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>16,43%</t>
+          <t>16,42%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>22,55%</t>
+          <t>22,59%</t>
         </is>
       </c>
     </row>
@@ -4725,12 +4725,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12862</t>
+          <t>12787</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>28258</t>
+          <t>28958</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -4740,12 +4740,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,69%</t>
+          <t>5,66%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>12,51%</t>
+          <t>12,82%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -4760,12 +4760,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>21750</t>
+          <t>21656</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>37444</t>
+          <t>38404</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -4775,12 +4775,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>9,55%</t>
+          <t>9,8%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -4795,12 +4795,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>39119</t>
+          <t>39390</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>60679</t>
+          <t>61129</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -4810,12 +4810,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>6,33%</t>
+          <t>6,38%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>9,82%</t>
+          <t>9,89%</t>
         </is>
       </c>
     </row>
@@ -4955,12 +4955,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>12428</t>
+          <t>12905</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>40043</t>
+          <t>40946</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -4970,12 +4970,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -4990,12 +4990,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6961</t>
+          <t>6581</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>22963</t>
+          <t>22518</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -5005,12 +5005,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -5025,12 +5025,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>25343</t>
+          <t>25222</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>56713</t>
+          <t>56018</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -5045,7 +5045,7 @@
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>2,02%</t>
         </is>
       </c>
     </row>
@@ -5068,12 +5068,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>159714</t>
+          <t>145921</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>343217</t>
+          <t>338159</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -5083,12 +5083,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>11,44%</t>
+          <t>10,45%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>24,58%</t>
+          <t>24,22%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -5103,12 +5103,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>262527</t>
+          <t>260107</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>769958</t>
+          <t>796091</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -5118,12 +5118,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>19,02%</t>
+          <t>18,85%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>55,79%</t>
+          <t>57,68%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -5138,12 +5138,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>504335</t>
+          <t>495262</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>1225098</t>
+          <t>1208183</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -5153,12 +5153,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>18,16%</t>
+          <t>17,84%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>44,12%</t>
+          <t>43,51%</t>
         </is>
       </c>
     </row>
@@ -5181,12 +5181,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>218246</t>
+          <t>216994</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>453385</t>
+          <t>461699</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -5196,12 +5196,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>15,63%</t>
+          <t>15,54%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>32,47%</t>
+          <t>33,06%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -5216,12 +5216,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>216233</t>
+          <t>200153</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>399317</t>
+          <t>402502</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -5231,12 +5231,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>15,67%</t>
+          <t>14,5%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>28,93%</t>
+          <t>29,16%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -5251,12 +5251,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>494077</t>
+          <t>499040</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>821884</t>
+          <t>825657</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -5266,12 +5266,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>17,79%</t>
+          <t>17,97%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>29,6%</t>
+          <t>29,74%</t>
         </is>
       </c>
     </row>
@@ -5294,12 +5294,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>393900</t>
+          <t>395070</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>902830</t>
+          <t>919766</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -5309,12 +5309,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>28,21%</t>
+          <t>28,29%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>64,65%</t>
+          <t>65,87%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -5329,12 +5329,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>231375</t>
+          <t>206624</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>437965</t>
+          <t>434535</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -5344,12 +5344,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>16,76%</t>
+          <t>14,97%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>31,73%</t>
+          <t>31,48%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -5364,12 +5364,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>703433</t>
+          <t>693591</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>1369000</t>
+          <t>1427632</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -5379,12 +5379,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>25,33%</t>
+          <t>24,98%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>49,31%</t>
+          <t>51,42%</t>
         </is>
       </c>
     </row>
@@ -5407,12 +5407,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>64913</t>
+          <t>65441</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>153061</t>
+          <t>152179</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -5422,12 +5422,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>10,9%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -5442,12 +5442,12 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>81107</t>
+          <t>75083</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>164498</t>
+          <t>161971</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -5457,12 +5457,12 @@
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>5,44%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>11,92%</t>
+          <t>11,74%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -5477,12 +5477,12 @@
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>175101</t>
+          <t>172501</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>302580</t>
+          <t>301236</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -5492,12 +5492,12 @@
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>10,9%</t>
+          <t>10,85%</t>
         </is>
       </c>
     </row>
@@ -5520,12 +5520,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>21458</t>
+          <t>21008</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>58129</t>
+          <t>55514</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -5535,12 +5535,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -5555,12 +5555,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>41268</t>
+          <t>42832</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>327102</t>
+          <t>343345</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -5570,12 +5570,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>23,7%</t>
+          <t>24,88%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -5590,12 +5590,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>81110</t>
+          <t>80103</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>404605</t>
+          <t>420595</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -5605,12 +5605,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>14,57%</t>
+          <t>15,15%</t>
         </is>
       </c>
     </row>
@@ -5750,12 +5750,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>21467</t>
+          <t>22652</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>43494</t>
+          <t>44899</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -5765,12 +5765,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>9,52%</t>
+          <t>9,83%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -5785,12 +5785,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>16610</t>
+          <t>16370</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>32511</t>
+          <t>32805</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -5800,12 +5800,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>3,79%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>7,48%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -5820,12 +5820,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>42383</t>
+          <t>42180</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>70353</t>
+          <t>69897</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -5835,12 +5835,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>4,71%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>7,86%</t>
+          <t>7,81%</t>
         </is>
       </c>
     </row>
@@ -5863,12 +5863,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>180923</t>
+          <t>180665</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>224704</t>
+          <t>228239</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -5878,12 +5878,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>39,6%</t>
+          <t>39,54%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>49,18%</t>
+          <t>49,95%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -5898,12 +5898,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>169784</t>
+          <t>168990</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>206495</t>
+          <t>205344</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -5913,12 +5913,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>38,71%</t>
+          <t>38,53%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>47,08%</t>
+          <t>46,82%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -5933,12 +5933,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>359215</t>
+          <t>362058</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>414206</t>
+          <t>419160</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -5948,12 +5948,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>40,11%</t>
+          <t>40,43%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>46,25%</t>
+          <t>46,81%</t>
         </is>
       </c>
     </row>
@@ -5976,12 +5976,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>133334</t>
+          <t>132516</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>176657</t>
+          <t>174797</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -5991,12 +5991,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>29,18%</t>
+          <t>29,0%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>38,66%</t>
+          <t>38,25%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -6011,12 +6011,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>129217</t>
+          <t>127833</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>163471</t>
+          <t>162341</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -6026,12 +6026,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>29,46%</t>
+          <t>29,15%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>37,27%</t>
+          <t>37,01%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -6046,12 +6046,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>271655</t>
+          <t>271367</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>328293</t>
+          <t>325433</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -6061,12 +6061,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>30,33%</t>
+          <t>30,3%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>36,66%</t>
+          <t>36,34%</t>
         </is>
       </c>
     </row>
@@ -6089,12 +6089,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>41158</t>
+          <t>41518</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>71063</t>
+          <t>73879</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -6104,12 +6104,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>9,01%</t>
+          <t>9,09%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>15,55%</t>
+          <t>16,17%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -6124,12 +6124,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>44110</t>
+          <t>45831</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>69840</t>
+          <t>69876</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -6139,12 +6139,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>10,06%</t>
+          <t>10,45%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>15,92%</t>
+          <t>15,93%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -6159,12 +6159,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>93961</t>
+          <t>93162</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>133846</t>
+          <t>135462</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -6174,12 +6174,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>10,49%</t>
+          <t>10,4%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>14,95%</t>
+          <t>15,13%</t>
         </is>
       </c>
     </row>
@@ -6202,12 +6202,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>6161</t>
+          <t>6293</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>22183</t>
+          <t>21925</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -6217,12 +6217,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -6237,12 +6237,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>13068</t>
+          <t>12743</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>31278</t>
+          <t>30982</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -6252,12 +6252,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>7,06%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -6272,12 +6272,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>22009</t>
+          <t>22870</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>44954</t>
+          <t>45323</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -6287,12 +6287,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>5,06%</t>
         </is>
       </c>
     </row>
@@ -6320,7 +6320,7 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>7307</t>
+          <t>7465</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -6335,7 +6335,7 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -6350,12 +6350,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>3430</t>
+          <t>3355</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>12112</t>
+          <t>11872</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -6365,12 +6365,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -6385,12 +6385,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>4626</t>
+          <t>4281</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>14135</t>
+          <t>14173</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -6400,7 +6400,7 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
@@ -6545,12 +6545,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>38955</t>
+          <t>37274</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>80682</t>
+          <t>77513</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -6560,12 +6560,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>3,73%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -6580,12 +6580,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>29244</t>
+          <t>30427</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>58207</t>
+          <t>56882</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -6595,12 +6595,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -6615,12 +6615,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>79152</t>
+          <t>77164</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>126856</t>
+          <t>126050</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -6630,12 +6630,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>1,8%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>2,94%</t>
         </is>
       </c>
     </row>
@@ -6658,12 +6658,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>359980</t>
+          <t>347969</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>595937</t>
+          <t>602886</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -6673,12 +6673,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>17,31%</t>
+          <t>16,74%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>28,66%</t>
+          <t>29,0%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -6693,12 +6693,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>499750</t>
+          <t>507367</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>1115565</t>
+          <t>1116157</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -6708,12 +6708,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>22,61%</t>
+          <t>22,95%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>50,46%</t>
+          <t>50,49%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -6728,12 +6728,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>976500</t>
+          <t>992840</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>1743484</t>
+          <t>1680033</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -6743,12 +6743,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>22,76%</t>
+          <t>23,14%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>40,64%</t>
+          <t>39,16%</t>
         </is>
       </c>
     </row>
@@ -6771,12 +6771,12 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>374520</t>
+          <t>364797</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>653532</t>
+          <t>650342</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -6786,12 +6786,12 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>18,01%</t>
+          <t>17,54%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>31,43%</t>
+          <t>31,28%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -6806,12 +6806,12 @@
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>391351</t>
+          <t>394816</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>623678</t>
+          <t>620818</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -6821,12 +6821,12 @@
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>17,7%</t>
+          <t>17,86%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>28,21%</t>
+          <t>28,08%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
@@ -6841,12 +6841,12 @@
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>865131</t>
+          <t>850027</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>1226606</t>
+          <t>1234597</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -6856,12 +6856,12 @@
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>20,17%</t>
+          <t>19,81%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>28,59%</t>
+          <t>28,78%</t>
         </is>
       </c>
     </row>
@@ -6884,12 +6884,12 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>513614</t>
+          <t>512467</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>1160614</t>
+          <t>1158994</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -6899,12 +6899,12 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>24,7%</t>
+          <t>24,65%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>55,82%</t>
+          <t>55,74%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -6919,12 +6919,12 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>418119</t>
+          <t>411125</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>656372</t>
+          <t>655245</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -6934,12 +6934,12 @@
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>18,91%</t>
+          <t>18,6%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>29,69%</t>
+          <t>29,64%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -6954,12 +6954,12 @@
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>1049916</t>
+          <t>1045250</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>1834804</t>
+          <t>1842994</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -6969,12 +6969,12 @@
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>24,47%</t>
+          <t>24,37%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>42,77%</t>
+          <t>42,96%</t>
         </is>
       </c>
     </row>
@@ -6997,12 +6997,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>119935</t>
+          <t>115007</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>216122</t>
+          <t>216247</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -7012,12 +7012,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>10,39%</t>
+          <t>10,4%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -7032,12 +7032,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>161434</t>
+          <t>156391</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>260015</t>
+          <t>258600</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -7047,12 +7047,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>7,07%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>11,76%</t>
+          <t>11,7%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -7067,12 +7067,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>312216</t>
+          <t>304902</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>457202</t>
+          <t>456113</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -7082,12 +7082,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>7,11%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>10,63%</t>
         </is>
       </c>
     </row>
@@ -7110,12 +7110,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>39132</t>
+          <t>37105</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>81178</t>
+          <t>80328</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -7125,12 +7125,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -7145,12 +7145,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>80831</t>
+          <t>79396</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>421541</t>
+          <t>392262</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -7160,12 +7160,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>19,07%</t>
+          <t>17,74%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -7180,12 +7180,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>134160</t>
+          <t>136169</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>465384</t>
+          <t>467890</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -7195,12 +7195,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>3,13%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>10,85%</t>
+          <t>10,91%</t>
         </is>
       </c>
     </row>
@@ -10998,12 +10998,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>128</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1604</t>
+          <t>1613</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -11013,47 +11013,47 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>0,14%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1,72%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1095</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>4840</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,97%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
           <t>0,13%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>1,71%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>1095</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>167</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>4266</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>0,97%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>0,15%</t>
-        </is>
-      </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -11068,12 +11068,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>484</t>
+          <t>557</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>4730</t>
+          <t>5265</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -11083,12 +11083,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>2,54%</t>
         </is>
       </c>
     </row>
@@ -11111,12 +11111,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12879</t>
+          <t>12569</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>27991</t>
+          <t>28409</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -11126,12 +11126,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,72%</t>
+          <t>13,39%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>29,83%</t>
+          <t>30,27%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -11146,12 +11146,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>16494</t>
+          <t>16752</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>29957</t>
+          <t>30931</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -11161,12 +11161,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>14,55%</t>
+          <t>14,77%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>26,42%</t>
+          <t>27,28%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -11181,12 +11181,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>33250</t>
+          <t>33845</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>55016</t>
+          <t>53700</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -11196,12 +11196,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>16,04%</t>
+          <t>16,33%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>26,55%</t>
+          <t>25,91%</t>
         </is>
       </c>
     </row>
@@ -11224,12 +11224,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>15993</t>
+          <t>15929</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>35168</t>
+          <t>36155</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -11239,12 +11239,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>17,04%</t>
+          <t>16,97%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>37,47%</t>
+          <t>38,52%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -11259,12 +11259,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>21362</t>
+          <t>21651</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>36956</t>
+          <t>37693</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -11274,12 +11274,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>18,84%</t>
+          <t>19,09%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>32,59%</t>
+          <t>33,24%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -11294,12 +11294,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>40960</t>
+          <t>40278</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>67703</t>
+          <t>66136</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -11309,12 +11309,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>19,76%</t>
+          <t>19,43%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>32,67%</t>
+          <t>31,91%</t>
         </is>
       </c>
     </row>
@@ -11337,12 +11337,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>11421</t>
+          <t>11941</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>27963</t>
+          <t>28320</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -11352,12 +11352,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>12,17%</t>
+          <t>12,72%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>29,79%</t>
+          <t>30,18%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -11372,12 +11372,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>22144</t>
+          <t>21932</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>38298</t>
+          <t>37988</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -11387,12 +11387,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>19,53%</t>
+          <t>19,34%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>33,77%</t>
+          <t>33,5%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -11407,12 +11407,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>37379</t>
+          <t>36184</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>60416</t>
+          <t>60335</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -11422,12 +11422,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>18,04%</t>
+          <t>17,46%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>29,15%</t>
+          <t>29,11%</t>
         </is>
       </c>
     </row>
@@ -11450,12 +11450,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13682</t>
+          <t>14281</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>33476</t>
+          <t>33113</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -11465,12 +11465,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>14,58%</t>
+          <t>15,22%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>35,67%</t>
+          <t>35,28%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -11485,12 +11485,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>8107</t>
+          <t>7992</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>18740</t>
+          <t>19500</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -11500,12 +11500,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>7,15%</t>
+          <t>7,05%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>16,53%</t>
+          <t>17,2%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -11520,12 +11520,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>24315</t>
+          <t>25115</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>46776</t>
+          <t>47796</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -11535,12 +11535,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>11,73%</t>
+          <t>12,12%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>22,57%</t>
+          <t>23,06%</t>
         </is>
       </c>
     </row>
@@ -11563,12 +11563,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4475</t>
+          <t>4639</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17507</t>
+          <t>18086</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -11578,12 +11578,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,65%</t>
+          <t>19,27%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -11598,12 +11598,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>12122</t>
+          <t>11489</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>30145</t>
+          <t>28934</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -11613,12 +11613,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>10,69%</t>
+          <t>10,13%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>26,58%</t>
+          <t>25,52%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -11633,12 +11633,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>18535</t>
+          <t>18499</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>41162</t>
+          <t>41746</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -11648,12 +11648,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>8,94%</t>
+          <t>8,93%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>19,86%</t>
+          <t>20,14%</t>
         </is>
       </c>
     </row>
@@ -11793,12 +11793,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13398</t>
+          <t>13474</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24700</t>
+          <t>24660</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -11808,12 +11808,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>7,01%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -11828,12 +11828,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>10114</t>
+          <t>9964</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>20121</t>
+          <t>19541</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -11843,12 +11843,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>5,6%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -11863,12 +11863,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>25824</t>
+          <t>26244</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>40232</t>
+          <t>40212</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -11878,7 +11878,7 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
@@ -11906,12 +11906,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>68645</t>
+          <t>68006</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>90577</t>
+          <t>90017</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -11921,12 +11921,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>19,52%</t>
+          <t>19,34%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>25,76%</t>
+          <t>25,6%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -11941,12 +11941,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>61736</t>
+          <t>61769</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>82650</t>
+          <t>82576</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -11956,12 +11956,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>17,7%</t>
+          <t>17,71%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>23,7%</t>
+          <t>23,68%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -11976,12 +11976,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>135279</t>
+          <t>136537</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>167065</t>
+          <t>165294</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -11991,12 +11991,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>19,31%</t>
+          <t>19,49%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>23,85%</t>
+          <t>23,6%</t>
         </is>
       </c>
     </row>
@@ -12019,12 +12019,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>104479</t>
+          <t>103598</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>128511</t>
+          <t>127615</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -12034,12 +12034,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>29,71%</t>
+          <t>29,46%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>36,55%</t>
+          <t>36,29%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -12054,12 +12054,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>81376</t>
+          <t>80725</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>103147</t>
+          <t>104190</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -12069,12 +12069,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>23,33%</t>
+          <t>23,15%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>29,58%</t>
+          <t>29,87%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -12089,12 +12089,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>191039</t>
+          <t>193004</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>226815</t>
+          <t>227347</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -12104,12 +12104,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>27,28%</t>
+          <t>27,56%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>32,38%</t>
+          <t>32,46%</t>
         </is>
       </c>
     </row>
@@ -12132,12 +12132,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>62059</t>
+          <t>62413</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>83568</t>
+          <t>82749</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -12147,12 +12147,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>17,65%</t>
+          <t>17,75%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>23,77%</t>
+          <t>23,53%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -12167,12 +12167,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>86361</t>
+          <t>84268</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>109878</t>
+          <t>107415</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -12182,12 +12182,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>24,76%</t>
+          <t>24,16%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>31,51%</t>
+          <t>30,8%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -12202,12 +12202,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>154411</t>
+          <t>152885</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>186820</t>
+          <t>184692</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -12217,12 +12217,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>22,05%</t>
+          <t>21,83%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>26,67%</t>
+          <t>26,37%</t>
         </is>
       </c>
     </row>
@@ -12245,12 +12245,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>29856</t>
+          <t>31194</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>47019</t>
+          <t>46942</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -12260,12 +12260,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,49%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>13,37%</t>
+          <t>13,35%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -12280,12 +12280,12 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>37272</t>
+          <t>35650</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>57082</t>
+          <t>56057</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -12295,12 +12295,12 @@
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>10,69%</t>
+          <t>10,22%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>16,37%</t>
+          <t>16,07%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -12315,12 +12315,12 @@
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>71037</t>
+          <t>71158</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>96012</t>
+          <t>95819</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -12330,12 +12330,12 @@
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>10,14%</t>
+          <t>10,16%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>13,71%</t>
+          <t>13,68%</t>
         </is>
       </c>
     </row>
@@ -12358,12 +12358,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>21157</t>
+          <t>20730</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>36934</t>
+          <t>37056</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -12373,12 +12373,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>10,5%</t>
+          <t>10,54%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -12393,12 +12393,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>21590</t>
+          <t>21436</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>36510</t>
+          <t>36418</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -12408,12 +12408,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>10,47%</t>
+          <t>10,44%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -12428,12 +12428,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>46404</t>
+          <t>46944</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>67912</t>
+          <t>68085</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -12443,12 +12443,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>6,63%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>9,7%</t>
+          <t>9,72%</t>
         </is>
       </c>
     </row>
@@ -12588,12 +12588,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>21828</t>
+          <t>20860</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>34178</t>
+          <t>34127</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -12603,12 +12603,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>9,76%</t>
+          <t>9,33%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>15,29%</t>
+          <t>15,26%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -12623,12 +12623,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>17266</t>
+          <t>17213</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>30116</t>
+          <t>29692</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -12638,12 +12638,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>6,17%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>10,76%</t>
+          <t>10,61%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -12658,12 +12658,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>42070</t>
+          <t>42455</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>59619</t>
+          <t>60404</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -12673,12 +12673,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>8,43%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>12,0%</t>
         </is>
       </c>
     </row>
@@ -12701,12 +12701,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>69901</t>
+          <t>71288</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>90361</t>
+          <t>91229</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -12716,12 +12716,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>31,26%</t>
+          <t>31,88%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>40,41%</t>
+          <t>40,8%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -12736,12 +12736,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>78836</t>
+          <t>77730</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>100126</t>
+          <t>100289</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -12751,12 +12751,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>28,17%</t>
+          <t>27,77%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>35,78%</t>
+          <t>35,83%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -12771,12 +12771,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>153505</t>
+          <t>153805</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>183356</t>
+          <t>183132</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -12786,12 +12786,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>30,49%</t>
+          <t>30,55%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>36,42%</t>
+          <t>36,37%</t>
         </is>
       </c>
     </row>
@@ -12814,12 +12814,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>68229</t>
+          <t>68200</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>87301</t>
+          <t>88258</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -12829,12 +12829,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>30,51%</t>
+          <t>30,5%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>39,04%</t>
+          <t>39,47%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -12849,12 +12849,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>81228</t>
+          <t>80561</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>103556</t>
+          <t>103873</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -12864,12 +12864,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>29,02%</t>
+          <t>28,78%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>37,0%</t>
+          <t>37,11%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -12884,12 +12884,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>154183</t>
+          <t>154841</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>182690</t>
+          <t>183744</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -12899,12 +12899,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>30,62%</t>
+          <t>30,75%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>36,29%</t>
+          <t>36,49%</t>
         </is>
       </c>
     </row>
@@ -12927,12 +12927,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>17307</t>
+          <t>17680</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>29304</t>
+          <t>30190</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -12942,12 +12942,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>7,74%</t>
+          <t>7,91%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>13,11%</t>
+          <t>13,5%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -12962,12 +12962,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>40822</t>
+          <t>40441</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>59243</t>
+          <t>59188</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -12977,12 +12977,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>14,59%</t>
+          <t>14,45%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>21,17%</t>
+          <t>21,15%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -12997,12 +12997,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>60991</t>
+          <t>62703</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>83742</t>
+          <t>84883</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -13012,12 +13012,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>12,11%</t>
+          <t>12,45%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>16,63%</t>
+          <t>16,86%</t>
         </is>
       </c>
     </row>
@@ -13040,12 +13040,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>7552</t>
+          <t>7722</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>17536</t>
+          <t>16629</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -13055,12 +13055,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>3,38%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>7,84%</t>
+          <t>7,44%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -13075,12 +13075,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>14161</t>
+          <t>13915</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>27359</t>
+          <t>28010</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -13090,12 +13090,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>4,97%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>10,01%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -13110,12 +13110,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>24322</t>
+          <t>24183</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>40135</t>
+          <t>40791</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -13125,12 +13125,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>7,97%</t>
+          <t>8,1%</t>
         </is>
       </c>
     </row>
@@ -13153,12 +13153,12 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>1814</t>
+          <t>1622</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>8444</t>
+          <t>8590</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -13168,12 +13168,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>3,84%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -13188,12 +13188,12 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>5501</t>
+          <t>5251</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>13761</t>
+          <t>13530</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -13203,12 +13203,12 @@
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>4,92%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
@@ -13223,12 +13223,12 @@
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>8666</t>
+          <t>8814</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>18962</t>
+          <t>19057</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -13238,12 +13238,12 @@
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>3,79%</t>
         </is>
       </c>
     </row>
@@ -13383,12 +13383,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>37935</t>
+          <t>37916</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>55926</t>
+          <t>56095</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -13403,7 +13403,7 @@
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>8,36%</t>
+          <t>8,38%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -13418,12 +13418,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>30806</t>
+          <t>31086</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>47595</t>
+          <t>47580</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -13433,7 +13433,7 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
@@ -13453,12 +13453,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>72519</t>
+          <t>72206</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>97133</t>
+          <t>96433</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -13468,12 +13468,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>6,88%</t>
+          <t>6,83%</t>
         </is>
       </c>
     </row>
@@ -13496,12 +13496,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>164027</t>
+          <t>162532</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>195913</t>
+          <t>196441</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -13511,12 +13511,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>24,51%</t>
+          <t>24,29%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>29,28%</t>
+          <t>29,36%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -13531,12 +13531,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>165326</t>
+          <t>167582</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>198158</t>
+          <t>200420</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -13546,12 +13546,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>22,28%</t>
+          <t>22,58%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>26,7%</t>
+          <t>27,01%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -13566,12 +13566,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>337850</t>
+          <t>340439</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>386291</t>
+          <t>385551</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -13581,12 +13581,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>23,94%</t>
+          <t>24,13%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>27,37%</t>
+          <t>27,32%</t>
         </is>
       </c>
     </row>
@@ -13609,12 +13609,12 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>199975</t>
+          <t>200479</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>236458</t>
+          <t>236785</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -13624,12 +13624,12 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>29,89%</t>
+          <t>29,96%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>35,34%</t>
+          <t>35,39%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -13644,12 +13644,12 @@
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>194552</t>
+          <t>195107</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>230531</t>
+          <t>229986</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -13659,12 +13659,12 @@
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>26,22%</t>
+          <t>26,29%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>31,07%</t>
+          <t>30,99%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
@@ -13679,12 +13679,12 @@
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>404665</t>
+          <t>407039</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>457015</t>
+          <t>457265</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -13694,12 +13694,12 @@
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>28,68%</t>
+          <t>28,84%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>32,39%</t>
+          <t>32,4%</t>
         </is>
       </c>
     </row>
@@ -13722,12 +13722,12 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>98237</t>
+          <t>98378</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>128033</t>
+          <t>128125</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -13737,12 +13737,12 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>14,68%</t>
+          <t>14,7%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>19,14%</t>
+          <t>19,15%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -13757,12 +13757,12 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>159317</t>
+          <t>157261</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>192771</t>
+          <t>191295</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -13772,12 +13772,12 @@
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>21,47%</t>
+          <t>21,19%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>25,98%</t>
+          <t>25,78%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -13792,12 +13792,12 @@
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>264918</t>
+          <t>264398</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>309985</t>
+          <t>311001</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -13807,12 +13807,12 @@
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>18,77%</t>
+          <t>18,74%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>21,97%</t>
+          <t>22,04%</t>
         </is>
       </c>
     </row>
@@ -13835,12 +13835,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>59831</t>
+          <t>59673</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>87645</t>
+          <t>87683</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -13850,7 +13850,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>8,94%</t>
+          <t>8,92%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -13870,12 +13870,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>67066</t>
+          <t>65906</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>92327</t>
+          <t>90479</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -13885,12 +13885,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>9,04%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>12,44%</t>
+          <t>12,19%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -13905,12 +13905,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>132349</t>
+          <t>131255</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>170445</t>
+          <t>169029</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -13920,12 +13920,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>9,38%</t>
+          <t>9,3%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>12,08%</t>
+          <t>11,98%</t>
         </is>
       </c>
     </row>
@@ -13948,12 +13948,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>32263</t>
+          <t>33059</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>53375</t>
+          <t>53611</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -13963,12 +13963,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>8,01%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -13983,12 +13983,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>44942</t>
+          <t>44656</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>72081</t>
+          <t>71033</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -13998,12 +13998,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>9,71%</t>
+          <t>9,57%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -14018,12 +14018,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>82879</t>
+          <t>85423</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>115798</t>
+          <t>118794</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -14033,12 +14033,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>6,05%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>8,42%</t>
         </is>
       </c>
     </row>
